--- a/episodes.xlsx
+++ b/episodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="13860"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="27795" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="114">
   <si>
     <t>Big Bang</t>
   </si>
@@ -291,12 +291,6 @@
     <t>7.25</t>
   </si>
   <si>
-    <t>7.26</t>
-  </si>
-  <si>
-    <t>7.27</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -364,9 +358,6 @@
   </si>
   <si>
     <t>3.25</t>
-  </si>
-  <si>
-    <t>3.26</t>
   </si>
 </sst>
 </file>
@@ -386,7 +377,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,11 +409,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1271,24 +1269,28 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1"/>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>31</v>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="1"/>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" t="s">
+        <v>43</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1297,23 +1299,27 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1322,21 +1328,27 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1345,21 +1357,27 @@
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K33" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1368,21 +1386,27 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K34" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1391,21 +1415,27 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1414,21 +1444,27 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K36" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -1437,21 +1473,27 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -1460,20 +1502,22 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -1482,12 +1526,20 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1550,28 +1602,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" t="s">
-        <v>42</v>
-      </c>
-      <c r="K43" t="s">
-        <v>43</v>
-      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -1579,26 +1619,28 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>94</v>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>101</v>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K44" s="1"/>
+      <c r="J44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" t="s">
+        <v>43</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -1607,25 +1649,27 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K45" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -1634,25 +1678,27 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K46" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -1661,7 +1707,7 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>51</v>
@@ -1669,15 +1715,19 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K47" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -1686,7 +1736,7 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>51</v>
@@ -1694,15 +1744,19 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K48" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -1711,23 +1765,27 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K49" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -1736,23 +1794,27 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K50" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -1761,23 +1823,27 @@
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K51" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -1786,17 +1852,19 @@
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1808,12 +1876,20 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2281,6 +2357,23 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
